--- a/data/trans_dic/P68-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P68-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P68-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P68-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>16,86; 43,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>30,01; 56,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>9,12; 33,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>15,18; 42,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>10,89; 45,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>13,11; 56,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>8,51; 37,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>15,61; 39,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>17,73; 37,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>27,91; 50,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>11,32; 28,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>17,56; 36,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>15,65; 25,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>20,25; 31,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>17,68; 30,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>16,31; 27,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>13,69; 28,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>13,85; 28,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>11,23; 24,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>16,48; 25,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>16,4; 23,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>19,4; 28,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>16,81; 25,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,46; 24,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,2%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>22,75; 30,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,88; 27,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>19,78; 28,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>13,73; 22,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>15,17; 24,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>18,43; 29,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>15,51; 25,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,7; 28,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>21,22; 27,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>19,84; 26,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>19,19; 25,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>17,63; 24,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,76%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>22,1; 31,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>20,1; 30,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>25,21; 35,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>12,28; 20,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>16,45; 27,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>19,15; 31,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>18,92; 29,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>20,48; 33,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,62; 29,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>20,97; 29,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>24,53; 31,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>17,07; 25,07</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,04; 28,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>16,05; 23,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>18,14; 26,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>17,46; 25,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>18,72; 26,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>16,87; 26,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>16,09; 25,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>20,7; 29,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>21,09; 26,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>17,2; 23,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>18,43; 24,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>19,99; 26,02</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,72; 26,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>21,07; 25,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,39; 27,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,24; 21,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,7; 24,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,1; 25,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,53; 23,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>21,98; 27,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,24; 25,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>21,35; 24,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>21,43; 24,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>19,82; 23,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P68-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 43,09</t>
+          <t>17,1; 25,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 56,2</t>
+          <t>23,63; 34,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 33,43</t>
+          <t>17,47; 28,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 42,24</t>
+          <t>17,03; 26,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 45,11</t>
+          <t>14,84; 27,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 56,16</t>
+          <t>15,88; 29,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 37,57</t>
+          <t>12,77; 23,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 39,49</t>
+          <t>17,47; 26,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 37,6</t>
+          <t>17,49; 25,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,91; 50,0</t>
+          <t>22,02; 30,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 28,78</t>
+          <t>16,61; 24,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,56; 36,66</t>
+          <t>18,36; 24,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,11</t>
+          <t>22,75; 30,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,25; 31,75</t>
+          <t>18,88; 27,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 30,21</t>
+          <t>19,78; 28,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 27,27</t>
+          <t>6,3; 21,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 28,52</t>
+          <t>15,17; 24,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 28,27</t>
+          <t>18,43; 29,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 24,62</t>
+          <t>15,51; 25,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,87</t>
+          <t>21,63; 28,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 23,74</t>
+          <t>21,22; 27,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,24</t>
+          <t>19,84; 26,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 25,74</t>
+          <t>19,19; 25,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,3</t>
+          <t>8,87; 23,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>23,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,72</t>
+          <t>22,1; 31,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 27,38</t>
+          <t>20,1; 30,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,78; 28,76</t>
+          <t>25,21; 35,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 22,7</t>
+          <t>12,05; 20,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 24,84</t>
+          <t>16,45; 27,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,64</t>
+          <t>19,15; 31,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,91</t>
+          <t>18,92; 29,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 28,97</t>
+          <t>21,1; 52,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,52</t>
+          <t>21,62; 29,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 26,71</t>
+          <t>20,97; 29,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 25,9</t>
+          <t>24,53; 31,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 24,2</t>
+          <t>17,92; 36,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,1; 31,87</t>
+          <t>21,04; 28,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 30,06</t>
+          <t>16,05; 23,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,21; 35,24</t>
+          <t>18,14; 26,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 20,95</t>
+          <t>17,88; 25,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,45; 27,83</t>
+          <t>18,72; 26,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 31,39</t>
+          <t>16,87; 26,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 29,33</t>
+          <t>16,09; 25,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 33,84</t>
+          <t>13,13; 27,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 29,23</t>
+          <t>21,09; 26,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 29,2</t>
+          <t>17,2; 23,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,12</t>
+          <t>18,43; 24,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 25,07</t>
+          <t>16,45; 24,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>20,49%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,65</t>
+          <t>22,72; 26,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 23,38</t>
+          <t>21,07; 25,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 26,31</t>
+          <t>22,39; 27,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,46; 25,42</t>
+          <t>12,01; 20,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 26,76</t>
+          <t>18,7; 24,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,87; 26,32</t>
+          <t>20,1; 25,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 25,54</t>
+          <t>18,53; 23,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,7; 29,64</t>
+          <t>20,84; 30,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,09; 26,59</t>
+          <t>22,24; 25,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 23,52</t>
+          <t>21,35; 24,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,66</t>
+          <t>21,43; 24,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 26,02</t>
+          <t>15,84; 23,45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>24,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,48%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,75%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>20,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,34%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23,75%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>23,12%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>23,19%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>22,72; 26,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,07; 25,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>22,39; 27,26</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 21,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>18,7; 24,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>20,1; 25,89</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,53; 23,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>21,98; 27,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,24; 25,33</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>21,35; 24,73</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>21,43; 24,9</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 23,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P68-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P68-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 25,89</t>
+          <t>16,59; 25,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,63; 34,85</t>
+          <t>23,33; 34,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 28,86</t>
+          <t>18,31; 28,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 26,43</t>
+          <t>17,02; 26,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,64</t>
+          <t>15,26; 27,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 29,19</t>
+          <t>15,67; 29,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 23,93</t>
+          <t>12,32; 23,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,04</t>
+          <t>17,13; 25,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 25,03</t>
+          <t>17,39; 24,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,51</t>
+          <t>22,04; 30,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,6</t>
+          <t>16,92; 24,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,36; 24,98</t>
+          <t>17,98; 24,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,72</t>
+          <t>22,99; 30,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 27,38</t>
+          <t>19,11; 27,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 28,76</t>
+          <t>19,71; 28,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 21,61</t>
+          <t>5,36; 21,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 24,84</t>
+          <t>15,51; 25,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,64</t>
+          <t>18,88; 29,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,91</t>
+          <t>15,5; 25,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,63; 28,89</t>
+          <t>21,15; 28,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,52</t>
+          <t>21,16; 27,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 26,71</t>
+          <t>20,25; 26,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,19; 25,9</t>
+          <t>19,37; 25,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 23,12</t>
+          <t>7,79; 23,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 31,87</t>
+          <t>22,45; 32,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,1; 30,06</t>
+          <t>19,85; 30,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,21; 35,24</t>
+          <t>25,48; 35,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 20,77</t>
+          <t>12,31; 21,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 27,83</t>
+          <t>16,16; 27,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 31,39</t>
+          <t>19,22; 31,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,92; 29,33</t>
+          <t>19,28; 29,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 52,04</t>
+          <t>20,95; 52,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 29,23</t>
+          <t>21,98; 29,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 29,2</t>
+          <t>20,6; 28,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,12</t>
+          <t>24,13; 31,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 36,02</t>
+          <t>17,93; 36,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,65</t>
+          <t>21,21; 28,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 23,38</t>
+          <t>15,44; 23,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 26,31</t>
+          <t>18,18; 26,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 25,99</t>
+          <t>17,65; 26,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 26,76</t>
+          <t>18,96; 27,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 26,32</t>
+          <t>16,58; 26,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 25,54</t>
+          <t>16,19; 25,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 27,13</t>
+          <t>13,53; 26,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,09; 26,59</t>
+          <t>21,01; 26,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 23,52</t>
+          <t>17,13; 23,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,66</t>
+          <t>18,61; 24,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,45; 24,86</t>
+          <t>16,91; 25,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,72; 26,87</t>
+          <t>22,82; 26,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,07; 25,59</t>
+          <t>21,2; 25,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,26</t>
+          <t>22,58; 27,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 20,98</t>
+          <t>11,41; 20,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 24,18</t>
+          <t>19,17; 24,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,89</t>
+          <t>20,07; 25,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,53; 23,46</t>
+          <t>18,57; 23,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,53</t>
+          <t>20,89; 30,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,24; 25,33</t>
+          <t>22,11; 25,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 24,73</t>
+          <t>21,42; 24,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,43; 24,9</t>
+          <t>21,5; 25,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,45</t>
+          <t>16,16; 23,17</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensan que su trabajo les afecta negativamente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>79331</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77643</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54673</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71215</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32241</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35254</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29915</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54681</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111572</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112898</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84588</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>125897</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>62882; 96354</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62742; 92313</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44148; 69834</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56546; 89090</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23601; 43072</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25266; 47055</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20493; 39906</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44184; 65995</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92816; 131604</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>94817; 132593</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68948; 101015</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>106092; 146449</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145981</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96984</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111983</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52797</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63498</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55552</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98730</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>198777</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>157408</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>152535</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>210712</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126865; 168382</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78103; 114205</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80470; 115963</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42949; 170744</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41270; 69152</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51274; 80962</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42441; 69255</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>83476; 114214</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>173133; 224370</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>137764; 180692</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>132093; 175926</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>93178; 275265</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109944</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79557</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>109935</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55277</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46533</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52979</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64747</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96908</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>156476</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>132536</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>174682</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>152184</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91471; 130743</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64003; 97622</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92165; 128031</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41510; 71472</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34434; 59327</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41196; 67986</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51980; 79272</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66064; 165148</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>136368; 180696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>110565; 153766</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>152324; 200433</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>117009; 235031</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>137049</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80342</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88410</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>101030</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>88551</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>64096</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66083</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103896</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>225600</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>154493</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>204926</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>117713; 158000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64646; 99991</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72569; 105946</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>82978; 122579</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>73476; 105527</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50001; 78802</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52174; 82719</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64619; 128579</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>198045; 249947</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123368; 166773</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134307; 178264</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>160297; 239122</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>472305</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>331452</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>339505</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>216298</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>354215</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>692427</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>547280</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>566299</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>693720</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>432161; 506905</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>300778; 363978</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>318451; 384700</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>221407; 403545</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>195809; 249326</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>190384; 244971</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>191645; 245787</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>301871; 435034</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>644460; 737682</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>506992; 587553</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>525085; 613144</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>547345; 784691</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>